--- a/Documents/hoangpm01336/ER_Diagram_Table Description_Hoangpm01336/Database table descriptions.xlsx
+++ b/Documents/hoangpm01336/ER_Diagram_Table Description_Hoangpm01336/Database table descriptions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="90">
   <si>
     <t>No</t>
   </si>
@@ -89,21 +89,9 @@
     <t>USer2ID</t>
   </si>
   <si>
-    <t>JoinGroupID</t>
-  </si>
-  <si>
     <t>ProjectID</t>
   </si>
   <si>
-    <t>Roles</t>
-  </si>
-  <si>
-    <t>LableID</t>
-  </si>
-  <si>
-    <t>LableName</t>
-  </si>
-  <si>
     <t>nvarchar(15)</t>
   </si>
   <si>
@@ -113,9 +101,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>OwnerUserID</t>
-  </si>
-  <si>
     <t>StartDate</t>
   </si>
   <si>
@@ -125,24 +110,15 @@
     <t>nvarchar(150)</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>RoleID</t>
   </si>
   <si>
     <t>RoleName</t>
   </si>
   <si>
-    <t>nvarchar(20)</t>
-  </si>
-  <si>
     <t>StateName</t>
   </si>
   <si>
-    <t>Milestone</t>
-  </si>
-  <si>
     <t>NextStateID</t>
   </si>
   <si>
@@ -170,9 +146,6 @@
     <t>DisplayName</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -188,12 +161,6 @@
     <t>UserTypeID</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>[AuthenticationTypes]AuthenticationTypeID</t>
-  </si>
-  <si>
     <t>[UserTypes]UserTypeID</t>
   </si>
   <si>
@@ -209,12 +176,6 @@
     <t>Table: Contacts</t>
   </si>
   <si>
-    <t>Table: JoinGroups</t>
-  </si>
-  <si>
-    <t>Table: Labels</t>
-  </si>
-  <si>
     <t>Table: Projects</t>
   </si>
   <si>
@@ -239,13 +200,100 @@
     <t>Table Descriptions</t>
   </si>
   <si>
-    <t>[Notiffications]NotifficationID</t>
-  </si>
-  <si>
     <t>Table: Notifications</t>
   </si>
   <si>
-    <t>Descriptions</t>
+    <t>nvarchar(100)</t>
+  </si>
+  <si>
+    <t>GenderID</t>
+  </si>
+  <si>
+    <t>GenderName</t>
+  </si>
+  <si>
+    <t>Table: Groups</t>
+  </si>
+  <si>
+    <t>GroupID</t>
+  </si>
+  <si>
+    <t>Lowercase</t>
+  </si>
+  <si>
+    <t>Uppercase</t>
+  </si>
+  <si>
+    <t>char(1)</t>
+  </si>
+  <si>
+    <t>Table: Genders</t>
+  </si>
+  <si>
+    <t>Table: JoinProjects</t>
+  </si>
+  <si>
+    <t>JoinProjectID</t>
+  </si>
+  <si>
+    <t>[Roles]RoleID</t>
+  </si>
+  <si>
+    <t>Table: Logs</t>
+  </si>
+  <si>
+    <t>LogID</t>
+  </si>
+  <si>
+    <t>LogTypeID</t>
+  </si>
+  <si>
+    <t>[LogTypes]LogTypeID</t>
+  </si>
+  <si>
+    <t>Table: LogTypes</t>
+  </si>
+  <si>
+    <t>LogTypeName</t>
+  </si>
+  <si>
+    <t>Table: OfflineMessages</t>
+  </si>
+  <si>
+    <t>OfflineMessageID</t>
+  </si>
+  <si>
+    <t>Sender</t>
+  </si>
+  <si>
+    <t>Receiver</t>
+  </si>
+  <si>
+    <t>OfflineNotificationID</t>
+  </si>
+  <si>
+    <t>NotificationID</t>
+  </si>
+  <si>
+    <t>[Notifications]NotificationID</t>
+  </si>
+  <si>
+    <t>OwnerUser</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>[Groups]GroupID</t>
+  </si>
+  <si>
+    <t>[Genders]GenderID</t>
+  </si>
+  <si>
+    <t>Table: OfflineNotifications</t>
   </si>
 </sst>
 </file>
@@ -615,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G109"/>
+  <dimension ref="B1:G141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="B129" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -634,14 +682,14 @@
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -677,7 +725,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -691,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -699,7 +747,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -749,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -789,7 +837,7 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -863,237 +911,219 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-    </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="C26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+      <c r="B32" s="2">
+        <v>6</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <v>2</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G40" s="3" t="s">
+      <c r="C42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="2">
-        <v>2</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1101,13 +1131,13 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1115,13 +1145,13 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1129,173 +1159,179 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
+      <c r="G46" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="B49" s="2">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="C53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="2">
-        <v>2</v>
-      </c>
-      <c r="C52" s="2" t="s">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <v>1</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
+      <c r="B55" s="2">
+        <v>2</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="2">
+        <v>3</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="3" t="s">
+      <c r="C60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="2">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="2">
-        <v>2</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="2">
-        <v>3</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="2">
-        <v>4</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -1303,13 +1339,13 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -1317,13 +1353,13 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -1331,10 +1367,10 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>7</v>
@@ -1342,124 +1378,150 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <v>5</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <v>6</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
+      <c r="B67" s="2">
+        <v>7</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="2">
+        <v>8</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G68" s="3" t="s">
+      <c r="C72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="2">
-        <v>1</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="2">
-        <v>2</v>
-      </c>
-      <c r="C70" s="2" t="s">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="2">
-        <v>3</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
+      <c r="B74" s="2">
+        <v>2</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>5</v>
+      <c r="B75" s="2">
+        <v>3</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -1467,13 +1529,13 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -1481,13 +1543,13 @@
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -1495,173 +1557,147 @@
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="G80" s="2"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="2">
-        <v>7</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="2">
-        <v>8</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
+      <c r="G81" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2">
+        <v>2</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G87" s="3" t="s">
+      <c r="C91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="2">
-        <v>1</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="2">
-        <v>2</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="2">
-        <v>3</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="2">
-        <v>4</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -1669,212 +1705,545 @@
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="2" t="s">
+      <c r="G93" s="2"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="2">
+        <v>2</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="2">
+        <v>2</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="2">
+        <v>3</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="2">
+        <v>2</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="2">
+        <v>3</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="2">
+        <v>4</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="2">
-        <v>7</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="2">
-        <v>8</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="2">
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="2">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="2">
-        <v>10</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="3" t="s">
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" s="2">
+        <v>2</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" s="2">
+        <v>3</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
+      <c r="C125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="2">
-        <v>1</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="2">
-        <v>2</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B106" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="1" t="s">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" s="2">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" s="2">
+        <v>2</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G107" s="1" t="s">
+      <c r="C131" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="2">
-        <v>1</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="2">
-        <v>2</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" s="2">
+        <v>1</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" s="2">
+        <v>2</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" s="2">
+        <v>3</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" s="2">
+        <v>1</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" s="2">
+        <v>2</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" s="2">
+        <v>3</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B106:G106"/>
+  <mergeCells count="19">
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="B90:G90"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B71:G71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
